--- a/hub-studio/Api/database/users.xlsx
+++ b/hub-studio/Api/database/users.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -447,9 +447,37 @@
         <v>Mariana Silva</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="str">
+        <v>juan@gmail.com</v>
+      </c>
+      <c r="C4" t="str">
+        <v>$2b$10$F7UwLfhfb6GWJboAHUsy0.Lp4g7sbVWB8cMBC2UJD5zcvVX6EYAzq</v>
+      </c>
+      <c r="D4" t="str">
+        <v>juan</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="str">
+        <v>jose_perequete@gmail.com</v>
+      </c>
+      <c r="C5" t="str">
+        <v>$2b$10$p0sa3ZW9TONZsEnEOHj8YeB9PTYELfyeaLAs3P1UPUQuHw/RRV8cO</v>
+      </c>
+      <c r="D5" t="str">
+        <v>pe re que te</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E5"/>
   </ignoredErrors>
 </worksheet>
 </file>